--- a/lab3/QuickSortTests.xlsx
+++ b/lab3/QuickSortTests.xlsx
@@ -14,48 +14,6 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Лист1!$A$2:$A$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Лист1!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Лист1!$A$2:$A$10</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Лист1!$B$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Лист1!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Лист1!$C$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Лист1!$C$2:$C$10</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Лист1!$A$2:$A$10</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Лист1!$B$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Лист1!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Лист1!$C$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Лист1!$C$2:$C$10</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Лист1!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Лист1!$A$2:$A$10</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Лист1!$B$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Лист1!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Лист1!$C$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Лист1!$C$2:$C$10</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Лист1!$A$2:$A$10</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Лист1!$B$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Лист1!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Лист1!$C$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Лист1!$C$2:$C$10</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Лист1!$C$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Лист1!$A$2:$A$10</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Лист1!$B$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Лист1!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Лист1!$C$1</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Лист1!$C$2:$C$10</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Лист1!$A$2:$A$10</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Лист1!$B$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Лист1!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Лист1!$C$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Лист1!$C$2:$C$10</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Лист1!$C$2:$C$10</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Лист1!$A$2:$A$10</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Лист1!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Лист1!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Лист1!$C$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Лист1!$C$2:$C$10</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -66,7 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Insert</t>
+  </si>
+  <si>
+    <t>QuickSort</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -81,12 +46,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,9 +72,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -183,7 +157,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>100000</c:v>
+                  <c:v>Insert</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -214,10 +188,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$10</c:f>
+              <c:f>Лист1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -236,50 +210,32 @@
                 <c:pt idx="5">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>512</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$10</c:f>
+              <c:f>Лист1!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>321</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>328</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>314</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>311</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>309</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>318</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>336</c:v>
+                  <c:v>7900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -462,7 +418,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> выполнения тестов, мс</a:t>
+                  <a:t> выполнения тестов, нс</a:t>
                 </a:r>
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
@@ -638,7 +594,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>250000</c:v>
+                  <c:v>QuickSort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -669,10 +625,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$10</c:f>
+              <c:f>Лист1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -691,50 +647,32 @@
                 <c:pt idx="5">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>512</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$10</c:f>
+              <c:f>Лист1!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>815</c:v>
+                  <c:v>4200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>845</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>801</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>793</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>785</c:v>
+                  <c:v>3300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>784</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>789</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>861</c:v>
+                  <c:v>7800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -915,7 +853,7 @@
                   <a:rPr lang="ru-RU" sz="1000" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Время выполнения тестов, мс</a:t>
+                  <a:t>Время выполнения тестов, нс</a:t>
                 </a:r>
                 <a:endParaRPr lang="ru-RU" sz="400">
                   <a:effectLst/>
@@ -2124,15 +2062,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2154,15 +2092,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2449,10 +2387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2463,11 +2401,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
-        <v>100000</v>
+      <c r="B1" t="s">
+        <v>0</v>
       </c>
-      <c r="C1" s="1">
-        <v>250000</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2475,10 +2413,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>321</v>
+        <v>400</v>
       </c>
       <c r="C2" s="1">
-        <v>815</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2486,10 +2424,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>328</v>
+        <v>500</v>
       </c>
       <c r="C3" s="1">
-        <v>845</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2497,10 +2435,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>314</v>
+        <v>700</v>
       </c>
       <c r="C4" s="1">
-        <v>801</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2508,21 +2446,21 @@
         <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>311</v>
+        <v>1200</v>
       </c>
       <c r="C5" s="1">
-        <v>793</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>32</v>
       </c>
-      <c r="B6" s="1">
-        <v>309</v>
+      <c r="B6" s="2">
+        <v>2700</v>
       </c>
-      <c r="C6" s="1">
-        <v>785</v>
+      <c r="C6" s="2">
+        <v>3300</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2530,46 +2468,29 @@
         <v>64</v>
       </c>
       <c r="B7" s="1">
-        <v>306</v>
+        <v>7900</v>
       </c>
       <c r="C7" s="1">
-        <v>784</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>128</v>
-      </c>
-      <c r="B8" s="1">
-        <v>310</v>
-      </c>
-      <c r="C8" s="1">
-        <v>789</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>256</v>
-      </c>
-      <c r="B9" s="1">
-        <v>318</v>
-      </c>
-      <c r="C9" s="1">
-        <v>805</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>512</v>
-      </c>
-      <c r="B10" s="1">
-        <v>336</v>
-      </c>
-      <c r="C10" s="1">
-        <v>861</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2604,6 +2525,9 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
